--- a/MedicalLink/Templates/So_XetNghiem_SinhHoaThuongQuy.xlsx
+++ b/MedicalLink/Templates/So_XetNghiem_SinhHoaThuongQuy.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$14</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,9 +32,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].THOIGIANBAOCAO</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>&amp;=[DATA1].STT</t>
   </si>
   <si>
-    <t>SỞ Y TẾ HẢI PHÒNG</t>
-  </si>
-  <si>
     <t>Họ tên người bệnh</t>
   </si>
   <si>
@@ -162,6 +156,12 @@
   </si>
   <si>
     <t>&amp;=[DATA].DEPARTMENTGROUPNAME</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -374,44 +374,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -700,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,268 +727,268 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="12"/>
+      <c r="F3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="32"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="32"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+    </row>
+    <row r="8" spans="1:18" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
     </row>
-    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
+    <row r="9" spans="1:18" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="25" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q12" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-    </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="29"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-    </row>
-    <row r="9" spans="1:18" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7">
-        <v>4</v>
-      </c>
-      <c r="E9" s="7">
-        <v>5</v>
-      </c>
-      <c r="F9" s="7">
-        <v>6</v>
-      </c>
-      <c r="G9" s="7">
-        <v>7</v>
-      </c>
-      <c r="H9" s="7">
-        <v>8</v>
-      </c>
-      <c r="I9" s="7">
-        <v>9</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:18" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q13" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="R13" s="30"/>
+      <c r="R12" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/So_XetNghiem_SinhHoaThuongQuy.xlsx
+++ b/MedicalLink/Templates/So_XetNghiem_SinhHoaThuongQuy.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>STT</t>
   </si>
@@ -155,13 +155,46 @@
     <t>&amp;=[DATA1].KETQUA_K2</t>
   </si>
   <si>
-    <t>&amp;=[DATA].DEPARTMENTGROUPNAME</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
   <si>
     <t>&amp;=[DATA].SOYTE</t>
+  </si>
+  <si>
+    <t>U6001-3819</t>
+  </si>
+  <si>
+    <t>U6001-3813</t>
+  </si>
+  <si>
+    <t>U6001-3748</t>
+  </si>
+  <si>
+    <t>U3380-0421</t>
+  </si>
+  <si>
+    <t>U3378-0316</t>
+  </si>
+  <si>
+    <t>U3379-0352</t>
+  </si>
+  <si>
+    <t>KETQUA_NA1</t>
+  </si>
+  <si>
+    <t>KETQUA_CL1</t>
+  </si>
+  <si>
+    <t>KETQUA_K1</t>
+  </si>
+  <si>
+    <t>KETQUA_NA2</t>
+  </si>
+  <si>
+    <t>KETQUA_CL2</t>
+  </si>
+  <si>
+    <t>KETQUA_K2</t>
   </si>
 </sst>
 </file>
@@ -222,7 +255,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +265,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -381,38 +420,44 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,21 +773,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="11"/>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
@@ -752,21 +797,21 @@
       <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="A2" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="22"/>
-      <c r="F2" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
+      <c r="F2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -775,86 +820,84 @@
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="12"/>
-      <c r="F3" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="24" t="s">
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="25" t="s">
+      <c r="K7" s="31"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="29"/>
       <c r="P7" s="18"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="1:18" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -902,80 +945,174 @@
       <c r="O8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="P8" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>11</v>
+      </c>
+      <c r="R8" s="7">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:18" s="8" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>1</v>
+      </c>
+      <c r="B9" s="23">
+        <v>2</v>
+      </c>
+      <c r="C9" s="23">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="D9" s="23">
+        <v>4</v>
+      </c>
+      <c r="E9" s="23">
+        <v>5</v>
+      </c>
+      <c r="F9" s="23">
+        <v>6</v>
+      </c>
+      <c r="G9" s="23">
+        <v>7</v>
+      </c>
+      <c r="H9" s="23">
+        <v>8</v>
+      </c>
+      <c r="I9" s="23">
+        <v>9</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="23">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>11</v>
+      </c>
+      <c r="R9" s="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="8" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R11" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q12" s="33" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q14" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="R12" s="33"/>
+      <c r="R14" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
@@ -983,12 +1120,12 @@
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="F3:K3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="R6:R7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
